--- a/EVM/Code Init.xlsx
+++ b/EVM/Code Init.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardlee/GitHub/PSFB_CodeBase_OS_Scheduler_MP102/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardlee/GitHub/PSFB_PCMC_MP102/EVM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD22DD-A21E-7242-88E5-B83656D805E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880D5D7-AF73-B24B-A5AC-D40C688E46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="860" windowWidth="31380" windowHeight="16280" xr2:uid="{269DCDD6-BA3B-4E97-9598-3E5639008664}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>dsPIC33CK64MP102</t>
   </si>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>CLC2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peak Current Input</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,6 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,7 +559,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -872,7 +876,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -886,18 +890,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -914,12 +918,12 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="2" t="s">
@@ -1041,7 +1045,7 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1154,6 +1158,9 @@
       <c r="D17" s="2">
         <v>15</v>
       </c>
+      <c r="H17" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15">
       <c r="A18" s="2" t="s">
@@ -1182,7 +1189,7 @@
       <c r="D19" s="2">
         <v>17</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1241,7 +1248,7 @@
       <c r="D23" s="2">
         <v>21</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1258,7 +1265,7 @@
       <c r="D24" s="2">
         <v>22</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="13" t="s">
         <v>86</v>
       </c>
     </row>

--- a/EVM/Code Init.xlsx
+++ b/EVM/Code Init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwardlee/GitHub/PSFB_PCMC_MP102/EVM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880D5D7-AF73-B24B-A5AC-D40C688E46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D415AB5-B415-3D44-9446-258DC2019EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="860" windowWidth="31380" windowHeight="16280" xr2:uid="{269DCDD6-BA3B-4E97-9598-3E5639008664}"/>
   </bookViews>
@@ -876,7 +876,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1045,9 +1045,6 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="15">
       <c r="A9" s="2" t="s">
@@ -1129,6 +1126,9 @@
       </c>
       <c r="D15" s="2">
         <v>13</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
